--- a/テスト履歴.xlsx
+++ b/テスト履歴.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fujitsu\MyPrj\nextjs\nextjs_tailwind_prisma_trpc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProject\Git管理\nextjs_tailwind_prisma_trpc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AABBDC73-B8AE-4E74-8BDA-178EAEBCA6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C025D0E2-9C8E-49E3-B524-8D8D087EC80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56B8885E-3C6E-4A29-9E7F-FDCDC385121D}"/>
+    <workbookView xWindow="5400" yWindow="1995" windowWidth="21600" windowHeight="13905" xr2:uid="{56B8885E-3C6E-4A29-9E7F-FDCDC385121D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Event</t>
   </si>
@@ -102,10 +101,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DbChgDateArray</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>etEventUserSels</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -114,10 +109,22 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Unique constraint failed on the fields: (`eventId`,`eventDate`,`userId`)</t>
-  </si>
-  <si>
-    <t>なし</t>
+    <t>最終tobe</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filterEventUserSels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -150,18 +157,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -386,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,40 +433,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F251BE-9FDF-4CED-96B3-4F5E5542E131}">
-  <dimension ref="B2:K26"/>
+  <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -794,8 +807,8 @@
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -823,7 +836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -835,7 +848,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,16 +861,16 @@
         <v>15</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -870,114 +883,111 @@
       <c r="G6" s="8">
         <v>17</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="15">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7">
-        <v>12</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="8">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="16"/>
-      <c r="C8" s="1">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="19">
         <v>12</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="20">
         <v>15</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="14"/>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7">
-        <v>12</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="1">
         <v>15</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>17</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="16"/>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="14"/>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E10" s="16"/>
       <c r="F10" s="1">
         <v>15</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="14"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="16"/>
-      <c r="C12" s="14" t="s">
-        <v>15</v>
-      </c>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
@@ -987,59 +997,35 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="16">
-        <v>2</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="21">
-        <v>12</v>
-      </c>
-      <c r="F13" s="22">
-        <v>15</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="14"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="14"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="1">
-        <v>15</v>
-      </c>
-      <c r="G14" s="8">
-        <v>17</v>
-      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="3"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="18">
-        <v>12</v>
-      </c>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="1"/>
       <c r="G15" s="8"/>
       <c r="H15" s="3"/>
@@ -1047,20 +1033,12 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="7">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1">
-        <v>15</v>
-      </c>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="14"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="8"/>
       <c r="H16" s="3"/>
       <c r="I16" s="1"/>
@@ -1068,126 +1046,30 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="16"/>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="1">
-        <v>15</v>
-      </c>
-      <c r="G17" s="8">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="16"/>
+    <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="15"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="3"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="16"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="16"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="16"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="16"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="16"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="16"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="17"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
